--- a/GA/src/cz.xlsx
+++ b/GA/src/cz.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E3D20-3A39-1148-BF1C-4C8D8C2668FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461A412-5A55-CC4E-957A-417185BDCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35460" yWindow="7220" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{2BABCC93-BFF8-9440-A6AE-8DCE9111A743}"/>
+    <workbookView xWindow="71760" yWindow="8260" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{2BABCC93-BFF8-9440-A6AE-8DCE9111A743}"/>
   </bookViews>
   <sheets>
     <sheet name="retailerA" sheetId="1" r:id="rId1"/>
     <sheet name="retailerB" sheetId="2" r:id="rId2"/>
+    <sheet name="retailerC" sheetId="3" r:id="rId3"/>
+    <sheet name="retailerD" sheetId="4" r:id="rId4"/>
+    <sheet name="retailerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>collection-centerA</t>
   </si>
@@ -46,6 +49,15 @@
   </si>
   <si>
     <t>productB</t>
+  </si>
+  <si>
+    <t>productC</t>
+  </si>
+  <si>
+    <t>collection-centerC</t>
+  </si>
+  <si>
+    <t>collection-centerD</t>
   </si>
 </sst>
 </file>
@@ -410,23 +422,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25E8F70-B5D8-B243-9536-CB0A4711A215}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +454,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -446,6 +467,51 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -455,41 +521,380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D04252A-BC40-C640-8C98-D86B831317ED}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B88F53-687A-B545-865A-9C9DA3E99EA5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0BA0C-ECA8-D04F-8DEA-D64DA1737B1C}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CB9B4B-15F2-0A48-BDEC-F487CF161378}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
